--- a/MainPCB/BOM.xlsx
+++ b/MainPCB/BOM.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="138">
   <si>
     <t>编号</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>京瓷</t>
     </r>
     <r>
@@ -99,6 +105,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>1210</t>
     </r>
     <r>
@@ -242,6 +254,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>SOD-323</t>
     </r>
     <r>
@@ -272,6 +290,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>贴片磁珠</t>
     </r>
     <r>
@@ -295,6 +319,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>线艺XAL系列模压屏蔽贴片电感</t>
     </r>
     <r>
@@ -331,6 +361,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>永源微</t>
     </r>
     <r>
@@ -373,6 +409,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>PDFN3x3 37nC 25V 40A 1.1mΩ 
 OptiMOS-5 N</t>
     </r>
@@ -403,6 +445,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>PDFN3x3 30V 45A 4.6mΩ 
 OptiMOS-3 N</t>
     </r>
@@ -433,6 +481,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>单</t>
     </r>
     <r>
@@ -492,6 +546,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>SOT23-6</t>
     </r>
     <r>
@@ -553,7 +613,58 @@
     <t>0Ω (0R0) ±1%</t>
   </si>
   <si>
-    <t>R2</t>
+    <t>R2, R15</t>
+  </si>
+  <si>
+    <r>
+      <t>R15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为驱动电池串数选择电</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阻，请根据手电装机所使用的电池节数自行安装</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不安装该电阻。</t>
+    </r>
   </si>
   <si>
     <t>100KΩ (1003) ±1%</t>
@@ -584,6 +695,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>德国伊萨</t>
     </r>
     <r>
@@ -639,6 +756,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>1206</t>
     </r>
     <r>
@@ -707,6 +830,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>0603</t>
     </r>
     <r>
@@ -774,6 +903,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>低噪声轨到轨输入输出精密单运放</t>
     </r>
     <r>
@@ -807,6 +942,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>低导通内阻单刀双掷模拟开关</t>
     </r>
     <r>
@@ -854,6 +995,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>国外用户不好采购可以用
 ON-SEMI的</t>
     </r>
@@ -891,6 +1038,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>中微增强型闪存</t>
     </r>
     <r>
@@ -939,6 +1092,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>不能用</t>
     </r>
     <r>
@@ -1636,7 +1796,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1664,6 +1824,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1699,6 +1865,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1">
       <alignment vertical="center"/>
@@ -2236,8 +2405,8 @@
   <sheetPr/>
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -2254,19 +2423,19 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -2277,16 +2446,16 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="16" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="2">
@@ -2300,16 +2469,16 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="2">
@@ -2323,16 +2492,16 @@
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F4" s="5">
@@ -2344,16 +2513,16 @@
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F5" s="5">
@@ -2365,16 +2534,16 @@
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="5">
@@ -2386,16 +2555,16 @@
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="5">
@@ -2407,16 +2576,16 @@
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="5">
@@ -2428,16 +2597,16 @@
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F9" s="5">
@@ -2449,16 +2618,16 @@
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="19" t="s">
         <v>35</v>
       </c>
       <c r="F10" s="5">
@@ -2470,16 +2639,16 @@
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F11" s="5">
@@ -2491,16 +2660,16 @@
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F12" s="5">
@@ -2512,16 +2681,16 @@
       <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F13" s="5">
@@ -2533,16 +2702,16 @@
       <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="19" t="s">
         <v>45</v>
       </c>
       <c r="F14" s="5">
@@ -2554,16 +2723,16 @@
       <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="19" t="s">
         <v>45</v>
       </c>
       <c r="F15" s="5">
@@ -2575,16 +2744,16 @@
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="19" t="s">
         <v>52</v>
       </c>
       <c r="F16" s="5">
@@ -2596,16 +2765,16 @@
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="16" t="s">
         <v>56</v>
       </c>
       <c r="F17" s="2">
@@ -2619,16 +2788,16 @@
       <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="19" t="s">
         <v>61</v>
       </c>
       <c r="F18" s="5">
@@ -2640,16 +2809,16 @@
       <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="19" t="s">
         <v>61</v>
       </c>
       <c r="F19" s="5">
@@ -2661,16 +2830,16 @@
       <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="19" t="s">
         <v>61</v>
       </c>
       <c r="F20" s="5">
@@ -2682,16 +2851,16 @@
       <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="19" t="s">
         <v>71</v>
       </c>
       <c r="F21" s="5">
@@ -2703,16 +2872,16 @@
       <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E22" s="19" t="s">
         <v>75</v>
       </c>
       <c r="F22" s="5">
@@ -2724,16 +2893,16 @@
       <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="19" t="s">
         <v>79</v>
       </c>
       <c r="F23" s="5">
@@ -2741,41 +2910,43 @@
       </c>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" ht="19.2" spans="1:7">
-      <c r="A24" s="5">
+    <row r="24" ht="69.6" spans="1:7">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="F24" s="5">
-        <v>1</v>
-      </c>
-      <c r="G24" s="5"/>
+      <c r="F24" s="2">
+        <v>2</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="25" ht="19.2" spans="1:7">
       <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="18" t="s">
+      <c r="B25" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="D25" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="E25" s="17" t="s">
+      <c r="D25" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="19" t="s">
         <v>79</v>
       </c>
       <c r="F25" s="5">
@@ -2787,16 +2958,16 @@
       <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" s="18" t="s">
+      <c r="B26" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" s="17" t="s">
+      <c r="D26" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="19" t="s">
         <v>79</v>
       </c>
       <c r="F26" s="5">
@@ -2808,16 +2979,16 @@
       <c r="A27" s="5">
         <v>26</v>
       </c>
-      <c r="B27" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" s="18" t="s">
+      <c r="B27" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" s="17" t="s">
+      <c r="D27" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="19" t="s">
         <v>79</v>
       </c>
       <c r="F27" s="5">
@@ -2829,16 +3000,16 @@
       <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" s="18" t="s">
+      <c r="B28" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="E28" s="17" t="s">
+      <c r="D28" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="19" t="s">
         <v>79</v>
       </c>
       <c r="F28" s="5">
@@ -2850,40 +3021,40 @@
       <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="C29" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="D29" s="16" t="s">
         <v>93</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>94</v>
       </c>
       <c r="F29" s="2">
         <v>1</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" ht="19.2" spans="1:7">
       <c r="A30" s="5">
         <v>29</v>
       </c>
-      <c r="B30" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C30" s="17" t="s">
+      <c r="B30" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="C30" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="E30" s="17" t="s">
+      <c r="D30" s="19" t="s">
         <v>98</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>99</v>
       </c>
       <c r="F30" s="5">
         <v>1</v>
@@ -2894,16 +3065,16 @@
       <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="C31" s="18" t="s">
+      <c r="B31" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="D31" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="E31" s="17" t="s">
+      <c r="D31" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E31" s="19" t="s">
         <v>79</v>
       </c>
       <c r="F31" s="5">
@@ -2915,16 +3086,16 @@
       <c r="A32" s="5">
         <v>31</v>
       </c>
-      <c r="B32" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="18" t="s">
+      <c r="B32" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E32" s="17" t="s">
+      <c r="D32" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E32" s="19" t="s">
         <v>79</v>
       </c>
       <c r="F32" s="5">
@@ -2936,16 +3107,16 @@
       <c r="A33" s="5">
         <v>32</v>
       </c>
-      <c r="B33" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C33" s="18" t="s">
+      <c r="B33" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="D33" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="E33" s="17" t="s">
+      <c r="D33" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="E33" s="19" t="s">
         <v>79</v>
       </c>
       <c r="F33" s="5">
@@ -2957,16 +3128,16 @@
       <c r="A34" s="5">
         <v>33</v>
       </c>
-      <c r="B34" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="C34" s="18" t="s">
+      <c r="B34" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="D34" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="E34" s="17" t="s">
+      <c r="D34" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="E34" s="19" t="s">
         <v>79</v>
       </c>
       <c r="F34" s="5">
@@ -2978,16 +3149,16 @@
       <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c r="B35" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="C35" s="18" t="s">
+      <c r="B35" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="D35" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="E35" s="17" t="s">
+      <c r="D35" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="E35" s="19" t="s">
         <v>79</v>
       </c>
       <c r="F35" s="5">
@@ -2999,16 +3170,16 @@
       <c r="A36" s="5">
         <v>35</v>
       </c>
-      <c r="B36" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="C36" s="18" t="s">
+      <c r="B36" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="D36" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="E36" s="17" t="s">
+      <c r="D36" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E36" s="19" t="s">
         <v>79</v>
       </c>
       <c r="F36" s="5">
@@ -3020,17 +3191,17 @@
       <c r="A37" s="5">
         <v>36</v>
       </c>
-      <c r="B37" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="C37" s="19" t="s">
+      <c r="B37" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="C37" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="E37" s="17" t="s">
+      <c r="D37" s="19" t="s">
         <v>114</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>115</v>
       </c>
       <c r="F37" s="5">
         <v>1</v>
@@ -3038,43 +3209,43 @@
       <c r="G37" s="5"/>
     </row>
     <row r="38" ht="57.6" spans="1:7">
-      <c r="A38" s="9">
+      <c r="A38" s="11">
         <v>37</v>
       </c>
-      <c r="B38" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="C38" s="22" t="s">
+      <c r="B38" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="D38" s="21" t="s">
+      <c r="C38" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="E38" s="21" t="s">
+      <c r="D38" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="F38" s="9">
+      <c r="E38" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="F38" s="11">
         <v>1</v>
       </c>
-      <c r="G38" s="11" t="s">
-        <v>119</v>
+      <c r="G38" s="13" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="39" ht="38.4" spans="1:7">
       <c r="A39" s="5">
         <v>38</v>
       </c>
-      <c r="B39" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="C39" s="20" t="s">
+      <c r="B39" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="D39" s="17" t="s">
+      <c r="C39" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="E39" s="17" t="s">
+      <c r="D39" s="19" t="s">
         <v>123</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>124</v>
       </c>
       <c r="F39" s="5">
         <v>1</v>
@@ -3085,40 +3256,40 @@
       <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="C40" s="15" t="s">
+      <c r="B40" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="C40" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="E40" s="14" t="s">
+      <c r="D40" s="16" t="s">
         <v>127</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>128</v>
       </c>
       <c r="F40" s="2">
         <v>1</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" ht="38.4" spans="1:7">
       <c r="A41" s="5">
         <v>40</v>
       </c>
-      <c r="B41" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="C41" s="19" t="s">
+      <c r="B41" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="C41" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E41" s="17" t="s">
-        <v>123</v>
+      <c r="D41" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>124</v>
       </c>
       <c r="F41" s="5">
         <v>1</v>
@@ -3126,26 +3297,26 @@
       <c r="G41" s="5"/>
     </row>
     <row r="42" ht="54" spans="1:7">
-      <c r="A42" s="9">
+      <c r="A42" s="11">
         <v>41</v>
       </c>
-      <c r="B42" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="C42" s="23" t="s">
+      <c r="B42" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="D42" s="21" t="s">
+      <c r="C42" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="E42" s="22" t="s">
+      <c r="D42" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="F42" s="9">
+      <c r="E42" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F42" s="11">
         <v>1</v>
       </c>
-      <c r="G42" s="11" t="s">
-        <v>136</v>
+      <c r="G42" s="13" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/MainPCB/BOM.xlsx
+++ b/MainPCB/BOM.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="141">
   <si>
     <t>编号</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>备注</t>
+  </si>
+  <si>
+    <t>单价</t>
+  </si>
+  <si>
+    <t>总价</t>
   </si>
   <si>
     <t>TCN4107M035R0100E</t>
@@ -617,6 +623,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>R15</t>
     </r>
     <r>
@@ -1122,6 +1134,9 @@
       </rPr>
       <t>替代</t>
     </r>
+  </si>
+  <si>
+    <t>合计总价</t>
   </si>
 </sst>
 </file>
@@ -1134,7 +1149,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1160,6 +1175,14 @@
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1666,137 +1689,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1809,12 +1832,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1827,9 +1850,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1841,6 +1861,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2403,13 +2429,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="25.5555555555556" customWidth="1"/>
     <col min="3" max="3" width="35.8888888888889" customWidth="1"/>
@@ -2419,907 +2445,1220 @@
     <col min="7" max="7" width="27.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:7">
+    <row r="1" ht="15.6" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" ht="38.4" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" ht="38.4" spans="1:9">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="C2" s="18" t="s">
         <v>10</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>12</v>
       </c>
       <c r="F2" s="2">
         <v>1</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" ht="46.8" spans="1:7">
+        <v>13</v>
+      </c>
+      <c r="H2" s="4">
+        <v>12</v>
+      </c>
+      <c r="I2" s="4">
+        <f>H2*F2</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" ht="46.8" spans="1:9">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="C3" s="19" t="s">
         <v>15</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>17</v>
       </c>
       <c r="F3" s="2">
         <v>5</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" ht="19.2" spans="1:7">
-      <c r="A4" s="5">
+        <v>18</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="I3" s="4">
+        <f t="shared" ref="I3:I42" si="0">H3*F3</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" ht="19.2" spans="1:9">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="19" t="s">
+      <c r="B4" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="C4" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="5">
+      <c r="D4" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="4">
         <v>2</v>
       </c>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" ht="19.2" spans="1:7">
-      <c r="A5" s="5">
+      <c r="G4" s="4"/>
+      <c r="H4" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" ht="19.2" spans="1:9">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="19" t="s">
+      <c r="B5" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="C5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="5">
+      <c r="D5" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="4">
         <v>1</v>
       </c>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" ht="38.4" spans="1:7">
-      <c r="A6" s="5">
+      <c r="G5" s="4"/>
+      <c r="H5" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="6" ht="38.4" spans="1:9">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="21" t="s">
+      <c r="B6" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="F6" s="4">
+        <v>4</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="7" ht="19.2" spans="1:9">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="5">
-        <v>4</v>
-      </c>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" ht="19.2" spans="1:7">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="19" t="s">
+      <c r="D7" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="8" ht="19.2" spans="1:9">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="5">
-        <v>2</v>
-      </c>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" ht="19.2" spans="1:7">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="19" t="s">
+      <c r="D8" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="9" ht="19.2" spans="1:9">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="5">
+      <c r="D9" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="4">
         <v>1</v>
       </c>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" ht="19.2" spans="1:7">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="19" t="s">
+      <c r="G9" s="4"/>
+      <c r="H9" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="10" ht="19.2" spans="1:9">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="5">
+      <c r="D10" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="4">
         <v>1</v>
       </c>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" ht="19.2" spans="1:7">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="5">
+      <c r="G10" s="4"/>
+      <c r="H10" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="11" ht="19.2" spans="1:9">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="4">
         <v>1</v>
       </c>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" ht="19.2" spans="1:7">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="19" t="s">
+      <c r="G11" s="4"/>
+      <c r="H11" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="12" ht="19.2" spans="1:9">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="5">
+      <c r="D12" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="4">
         <v>1</v>
       </c>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" ht="19.2" spans="1:7">
-      <c r="A12" s="5">
-        <v>11</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="19" t="s">
+      <c r="G12" s="4"/>
+      <c r="H12" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="13" ht="19.2" spans="1:9">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="5">
+      <c r="D13" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="4">
         <v>1</v>
       </c>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" ht="19.2" spans="1:7">
-      <c r="A13" s="5">
-        <v>12</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="5">
+      <c r="G13" s="4"/>
+      <c r="H13" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="14" ht="19.2" spans="1:9">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="4">
         <v>1</v>
       </c>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" ht="19.2" spans="1:7">
-      <c r="A14" s="5">
-        <v>13</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="5">
+      <c r="G14" s="4"/>
+      <c r="H14" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="0"/>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="15" ht="38.4" spans="1:9">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="4">
         <v>1</v>
       </c>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" ht="38.4" spans="1:7">
-      <c r="A15" s="5">
-        <v>14</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="5">
+      <c r="G15" s="4"/>
+      <c r="H15" s="4">
+        <v>0.095</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="0"/>
+        <v>0.095</v>
+      </c>
+    </row>
+    <row r="16" ht="19.2" spans="1:9">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="4">
         <v>1</v>
       </c>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" ht="19.2" spans="1:7">
-      <c r="A16" s="5">
-        <v>15</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="5">
-        <v>1</v>
-      </c>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" ht="54" spans="1:7">
+      <c r="G16" s="4"/>
+      <c r="H16" s="4">
+        <v>0.018</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="0"/>
+        <v>0.018</v>
+      </c>
+    </row>
+    <row r="17" ht="54" spans="1:9">
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="16" t="s">
+      <c r="B17" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="C17" s="18" t="s">
         <v>56</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>58</v>
       </c>
       <c r="F17" s="2">
         <v>1</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" ht="38.4" spans="1:7">
-      <c r="A18" s="5">
+        <v>59</v>
+      </c>
+      <c r="H17" s="4">
+        <v>16</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" ht="38.4" spans="1:9">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="19" t="s">
+      <c r="B18" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="C18" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="5">
+      <c r="D18" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="4">
         <v>3</v>
       </c>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" ht="38.4" spans="1:7">
-      <c r="A19" s="5">
+      <c r="G18" s="4"/>
+      <c r="H18" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="0"/>
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="19" ht="38.4" spans="1:9">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="21" t="s">
+      <c r="B19" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="5">
+      <c r="F19" s="4">
         <v>2</v>
       </c>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" ht="38.4" spans="1:7">
-      <c r="A20" s="5">
+      <c r="G19" s="4"/>
+      <c r="H19" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" ht="38.4" spans="1:9">
+      <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="19" t="s">
+      <c r="B20" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20" s="5">
+      <c r="C20" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="4">
         <v>1</v>
       </c>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" ht="19.2" spans="1:7">
-      <c r="A21" s="5">
+      <c r="G20" s="4"/>
+      <c r="H20" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="I20" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="21" ht="19.2" spans="1:9">
+      <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="19" t="s">
+      <c r="B21" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="C21" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="F21" s="5">
+      <c r="D21" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="4">
         <v>1</v>
       </c>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" ht="19.2" spans="1:7">
-      <c r="A22" s="5">
+      <c r="G21" s="4"/>
+      <c r="H21" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="I21" s="4">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="22" ht="19.2" spans="1:9">
+      <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" s="19" t="s">
+      <c r="B22" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="C22" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="F22" s="5">
+      <c r="D22" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" s="4">
         <v>1</v>
       </c>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" ht="19.2" spans="1:7">
-      <c r="A23" s="5">
+      <c r="G22" s="4"/>
+      <c r="H22" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="I22" s="4">
+        <f t="shared" si="0"/>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="23" ht="19.2" spans="1:9">
+      <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D23" s="19" t="s">
+      <c r="B23" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="C23" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="F23" s="5">
+      <c r="D23" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" s="4">
         <v>2</v>
       </c>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" ht="69.6" spans="1:7">
+      <c r="G23" s="4"/>
+      <c r="H23" s="4">
+        <v>0.012</v>
+      </c>
+      <c r="I23" s="4">
+        <f t="shared" si="0"/>
+        <v>0.024</v>
+      </c>
+    </row>
+    <row r="24" ht="69.6" spans="1:9">
       <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="D24" s="16" t="s">
+      <c r="B24" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="17" t="s">
         <v>81</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>79</v>
       </c>
       <c r="F24" s="2">
         <v>2</v>
       </c>
-      <c r="G24" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" ht="19.2" spans="1:7">
-      <c r="A25" s="5">
+      <c r="G24" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0.012</v>
+      </c>
+      <c r="I24" s="4">
+        <f t="shared" si="0"/>
+        <v>0.024</v>
+      </c>
+    </row>
+    <row r="25" ht="19.2" spans="1:9">
+      <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" s="19" t="s">
+      <c r="B25" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="F25" s="5">
+      <c r="D25" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" s="4">
         <v>6</v>
       </c>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" ht="19.2" spans="1:7">
-      <c r="A26" s="5">
+      <c r="G25" s="4"/>
+      <c r="H25" s="4">
+        <v>0.012</v>
+      </c>
+      <c r="I25" s="4">
+        <f t="shared" si="0"/>
+        <v>0.072</v>
+      </c>
+    </row>
+    <row r="26" ht="19.2" spans="1:9">
+      <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="E26" s="19" t="s">
+      <c r="B26" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="F26" s="5">
+      <c r="D26" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" s="4">
         <v>6</v>
       </c>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" ht="19.2" spans="1:7">
-      <c r="A27" s="5">
+      <c r="G26" s="4"/>
+      <c r="H26" s="4">
+        <v>0.012</v>
+      </c>
+      <c r="I26" s="4">
+        <f t="shared" si="0"/>
+        <v>0.072</v>
+      </c>
+    </row>
+    <row r="27" ht="19.2" spans="1:9">
+      <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="E27" s="19" t="s">
+      <c r="B27" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="F27" s="5">
+      <c r="D27" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" s="4">
         <v>1</v>
       </c>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="28" ht="19.2" spans="1:7">
-      <c r="A28" s="5">
+      <c r="G27" s="4"/>
+      <c r="H27" s="4">
+        <v>0.012</v>
+      </c>
+      <c r="I27" s="4">
+        <f t="shared" si="0"/>
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="28" ht="19.2" spans="1:9">
+      <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="B28" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="E28" s="19" t="s">
+      <c r="B28" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="F28" s="5">
+      <c r="D28" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F28" s="4">
         <v>1</v>
       </c>
-      <c r="G28" s="5"/>
-    </row>
-    <row r="29" ht="62.4" spans="1:7">
+      <c r="G28" s="4"/>
+      <c r="H28" s="4">
+        <v>0.012</v>
+      </c>
+      <c r="I28" s="4">
+        <f t="shared" si="0"/>
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="29" ht="62.4" spans="1:9">
       <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D29" s="16" t="s">
+      <c r="B29" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="C29" s="18" t="s">
         <v>94</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>96</v>
       </c>
       <c r="F29" s="2">
         <v>1</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" ht="19.2" spans="1:7">
-      <c r="A30" s="5">
+        <v>97</v>
+      </c>
+      <c r="H29" s="4">
+        <v>2.12</v>
+      </c>
+      <c r="I29" s="4">
+        <f t="shared" si="0"/>
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="30" ht="19.2" spans="1:9">
+      <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D30" s="19" t="s">
+      <c r="B30" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="E30" s="19" t="s">
+      <c r="C30" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="F30" s="5">
+      <c r="D30" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F30" s="4">
         <v>1</v>
       </c>
-      <c r="G30" s="5"/>
-    </row>
-    <row r="31" ht="19.2" spans="1:7">
-      <c r="A31" s="5">
+      <c r="G30" s="4"/>
+      <c r="H30" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="I30" s="4">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="31" ht="19.2" spans="1:9">
+      <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="E31" s="19" t="s">
+      <c r="B31" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="F31" s="5">
+      <c r="D31" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F31" s="4">
         <v>1</v>
       </c>
-      <c r="G31" s="5"/>
-    </row>
-    <row r="32" ht="19.2" spans="1:7">
-      <c r="A32" s="5">
+      <c r="G31" s="4"/>
+      <c r="H31" s="4">
+        <v>0.012</v>
+      </c>
+      <c r="I31" s="4">
+        <f t="shared" si="0"/>
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="32" ht="19.2" spans="1:9">
+      <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="E32" s="19" t="s">
+      <c r="B32" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="F32" s="5">
+      <c r="D32" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F32" s="4">
         <v>2</v>
       </c>
-      <c r="G32" s="5"/>
-    </row>
-    <row r="33" ht="19.2" spans="1:7">
-      <c r="A33" s="5">
+      <c r="G32" s="4"/>
+      <c r="H32" s="4">
+        <v>0.012</v>
+      </c>
+      <c r="I32" s="4">
+        <f t="shared" si="0"/>
+        <v>0.024</v>
+      </c>
+    </row>
+    <row r="33" ht="19.2" spans="1:9">
+      <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="B33" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="E33" s="19" t="s">
+      <c r="B33" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="F33" s="5">
+      <c r="D33" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F33" s="4">
         <v>1</v>
       </c>
-      <c r="G33" s="5"/>
-    </row>
-    <row r="34" ht="19.2" spans="1:7">
-      <c r="A34" s="5">
+      <c r="G33" s="4"/>
+      <c r="H33" s="4">
+        <v>0.012</v>
+      </c>
+      <c r="I33" s="4">
+        <f t="shared" si="0"/>
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="34" ht="19.2" spans="1:9">
+      <c r="A34" s="4">
         <v>33</v>
       </c>
-      <c r="B34" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="E34" s="19" t="s">
+      <c r="B34" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="F34" s="5">
+      <c r="D34" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F34" s="4">
         <v>1</v>
       </c>
-      <c r="G34" s="5"/>
-    </row>
-    <row r="35" ht="19.2" spans="1:7">
-      <c r="A35" s="5">
+      <c r="G34" s="4"/>
+      <c r="H34" s="4">
+        <v>0.012</v>
+      </c>
+      <c r="I34" s="4">
+        <f t="shared" si="0"/>
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="35" ht="19.2" spans="1:9">
+      <c r="A35" s="4">
         <v>34</v>
       </c>
-      <c r="B35" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="E35" s="19" t="s">
+      <c r="B35" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="F35" s="5">
+      <c r="D35" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F35" s="4">
         <v>1</v>
       </c>
-      <c r="G35" s="5"/>
-    </row>
-    <row r="36" ht="19.2" spans="1:7">
-      <c r="A36" s="5">
+      <c r="G35" s="4"/>
+      <c r="H35" s="4">
+        <v>0.012</v>
+      </c>
+      <c r="I35" s="4">
+        <f t="shared" si="0"/>
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="36" ht="19.2" spans="1:9">
+      <c r="A36" s="4">
         <v>35</v>
       </c>
-      <c r="B36" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="E36" s="19" t="s">
+      <c r="B36" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="F36" s="5">
+      <c r="D36" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F36" s="4">
         <v>1</v>
       </c>
-      <c r="G36" s="5"/>
-    </row>
-    <row r="37" ht="38.4" spans="1:7">
-      <c r="A37" s="5">
+      <c r="G36" s="4"/>
+      <c r="H36" s="4">
+        <v>0.012</v>
+      </c>
+      <c r="I36" s="4">
+        <f t="shared" si="0"/>
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="37" ht="38.4" spans="1:9">
+      <c r="A37" s="4">
         <v>36</v>
       </c>
-      <c r="B37" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="D37" s="19" t="s">
+      <c r="B37" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="E37" s="19" t="s">
+      <c r="C37" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="F37" s="5">
+      <c r="D37" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="F37" s="4">
         <v>1</v>
       </c>
-      <c r="G37" s="5"/>
-    </row>
-    <row r="38" ht="57.6" spans="1:7">
-      <c r="A38" s="11">
+      <c r="G37" s="4"/>
+      <c r="H37" s="4">
+        <v>0.14</v>
+      </c>
+      <c r="I37" s="4">
+        <f t="shared" si="0"/>
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="38" ht="57.6" spans="1:9">
+      <c r="A38" s="10">
         <v>37</v>
       </c>
-      <c r="B38" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="C38" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="D38" s="24" t="s">
+      <c r="B38" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="E38" s="24" t="s">
+      <c r="C38" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="F38" s="11">
+      <c r="D38" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="F38" s="10">
         <v>1</v>
       </c>
-      <c r="G38" s="13" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="39" ht="38.4" spans="1:7">
-      <c r="A39" s="5">
+      <c r="G38" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="H38" s="4">
+        <v>6.58</v>
+      </c>
+      <c r="I38" s="4">
+        <f t="shared" si="0"/>
+        <v>6.58</v>
+      </c>
+    </row>
+    <row r="39" ht="38.4" spans="1:9">
+      <c r="A39" s="4">
         <v>38</v>
       </c>
-      <c r="B39" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="C39" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="D39" s="19" t="s">
+      <c r="B39" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="E39" s="19" t="s">
+      <c r="C39" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="F39" s="5">
+      <c r="D39" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="F39" s="4">
         <v>1</v>
       </c>
-      <c r="G39" s="5"/>
-    </row>
-    <row r="40" ht="50.4" spans="1:7">
+      <c r="G39" s="4"/>
+      <c r="H39" s="4">
+        <v>1.45</v>
+      </c>
+      <c r="I39" s="4">
+        <f t="shared" si="0"/>
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="40" ht="50.4" spans="1:9">
       <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="D40" s="16" t="s">
+      <c r="B40" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="C40" s="18" t="s">
         <v>128</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>130</v>
       </c>
       <c r="F40" s="2">
         <v>1</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="41" ht="38.4" spans="1:7">
-      <c r="A41" s="5">
+        <v>131</v>
+      </c>
+      <c r="H40" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="I40" s="4">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="41" ht="38.4" spans="1:9">
+      <c r="A41" s="4">
         <v>40</v>
       </c>
-      <c r="B41" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="D41" s="19" t="s">
+      <c r="B41" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="E41" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="F41" s="5">
+      <c r="C41" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="F41" s="4">
         <v>1</v>
       </c>
-      <c r="G41" s="5"/>
-    </row>
-    <row r="42" ht="54" spans="1:7">
-      <c r="A42" s="11">
+      <c r="G41" s="4"/>
+      <c r="H41" s="4">
+        <v>1.15</v>
+      </c>
+      <c r="I41" s="4">
+        <f t="shared" si="0"/>
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="42" ht="54" spans="1:9">
+      <c r="A42" s="10">
         <v>41</v>
       </c>
-      <c r="B42" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="C42" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="D42" s="24" t="s">
+      <c r="B42" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="E42" s="25" t="s">
+      <c r="C42" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="F42" s="11">
+      <c r="D42" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="E42" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="F42" s="10">
         <v>1</v>
       </c>
-      <c r="G42" s="13" t="s">
-        <v>137</v>
-      </c>
+      <c r="G42" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="H42" s="4">
+        <v>1.1</v>
+      </c>
+      <c r="I42" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="43" ht="24" customHeight="1" spans="1:9">
+      <c r="A43" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15">
+        <f>SUM(I2:I42)</f>
+        <v>64.123</v>
+      </c>
+      <c r="I43" s="15"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="H43:I43"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/MainPCB/BOM.xlsx
+++ b/MainPCB/BOM.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="149">
   <si>
     <t>编号</t>
   </si>
@@ -104,7 +104,7 @@
     <t>TCN4</t>
   </si>
   <si>
-    <t>这玩意单价不便宜，封装特殊小心买到假的</t>
+    <t>这玩意单价不便宜，封装特殊小心买到假的。可以用TCN4157M025R0070E替代</t>
   </si>
   <si>
     <t>EMK325ABJ107MM-T</t>
@@ -619,76 +619,20 @@
     <t>0Ω (0R0) ±1%</t>
   </si>
   <si>
-    <t>R2, R15</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>R15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为驱动电池串数选择电</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>阻，请根据手电装机所使用的电池节数自行安装</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>不安装该电阻。</t>
-    </r>
+    <t>R2</t>
   </si>
   <si>
     <t>100KΩ (1003) ±1%</t>
   </si>
   <si>
-    <t>R3, R4, R13, R18, R22, R23</t>
+    <t>R4, R18, R22, R23</t>
   </si>
   <si>
     <t>10KΩ (1002) ±1%</t>
   </si>
   <si>
-    <t>R5, R9, R11, R16, R25, R28</t>
+    <t>R5, R9, R11, 
+R16, R25, R28</t>
   </si>
   <si>
     <t>11KΩ (1002) ±1%</t>
@@ -703,7 +647,7 @@
     <t>R7</t>
   </si>
   <si>
-    <t>BVT-I-R003-1.0</t>
+    <t>BVT-I-R002-1.0</t>
   </si>
   <si>
     <r>
@@ -741,7 +685,7 @@
         <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
-      <t>2512 3mΩ±1% &lt;50ppm/K P70</t>
+      <t>2512 2mΩ±1% &lt;50ppm/K P70</t>
     </r>
     <r>
       <rPr>
@@ -760,11 +704,11 @@
     <t>2512</t>
   </si>
   <si>
-    <t>可用大毅的RLP25FEGR003
+    <t>可用大毅的RLP25FEGR002
 或者相似参数的直接替换但是需要特别注意温漂参数</t>
   </si>
   <si>
-    <t>RL12FTNR100</t>
+    <t>RL12FTNR500</t>
   </si>
   <si>
     <r>
@@ -792,7 +736,7 @@
         <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> 0.1Ω ±1% 1/2W</t>
+      <t xml:space="preserve"> 0.5Ω ±1% 1/2W</t>
     </r>
   </si>
   <si>
@@ -1134,6 +1078,84 @@
       </rPr>
       <t>替代</t>
     </r>
+  </si>
+  <si>
+    <t>??KΩ ±1%</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0603</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>贴片电阻</t>
+    </r>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>R15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为驱动参数配置电阻，请根据手电装机所使用的电池节数、LED类型、极亮电流选择阻值。</t>
+    </r>
+  </si>
+  <si>
+    <t>91KΩ (9102) ±1%</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0402</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>贴片电阻</t>
+    </r>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>200KΩ (2003) ±1%</t>
+  </si>
+  <si>
+    <t>R3, R29</t>
   </si>
   <si>
     <t>合计总价</t>
@@ -1819,7 +1841,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1847,8 +1869,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1865,9 +1893,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1892,7 +1917,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1">
@@ -2429,10 +2457,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2449,19 +2477,19 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -2474,20 +2502,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="38.4" spans="1:9">
+    <row r="2" ht="46.8" spans="1:9">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="18" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="2">
@@ -2508,16 +2536,16 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="18" t="s">
         <v>17</v>
       </c>
       <c r="F3" s="2">
@@ -2530,7 +2558,7 @@
         <v>1.8</v>
       </c>
       <c r="I3" s="4">
-        <f t="shared" ref="I3:I42" si="0">H3*F3</f>
+        <f t="shared" ref="I3:I45" si="0">H3*F3</f>
         <v>9</v>
       </c>
     </row>
@@ -2538,16 +2566,16 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="21" t="s">
         <v>22</v>
       </c>
       <c r="F4" s="4">
@@ -2566,16 +2594,16 @@
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F5" s="4">
@@ -2594,16 +2622,16 @@
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F6" s="4">
@@ -2622,16 +2650,16 @@
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F7" s="4">
@@ -2650,16 +2678,16 @@
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="4">
@@ -2678,16 +2706,16 @@
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F9" s="4">
@@ -2706,16 +2734,16 @@
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F10" s="4">
@@ -2734,16 +2762,16 @@
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F11" s="4">
@@ -2762,16 +2790,16 @@
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F12" s="4">
@@ -2790,16 +2818,16 @@
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F13" s="4">
@@ -2818,16 +2846,16 @@
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="21" t="s">
         <v>47</v>
       </c>
       <c r="F14" s="4">
@@ -2846,16 +2874,16 @@
       <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="21" t="s">
         <v>47</v>
       </c>
       <c r="F15" s="4">
@@ -2874,16 +2902,16 @@
       <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="4">
@@ -2902,16 +2930,16 @@
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="18" t="s">
         <v>58</v>
       </c>
       <c r="F17" s="2">
@@ -2932,16 +2960,16 @@
       <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="21" t="s">
         <v>63</v>
       </c>
       <c r="F18" s="4">
@@ -2960,16 +2988,16 @@
       <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="21" t="s">
         <v>63</v>
       </c>
       <c r="F19" s="4">
@@ -2988,16 +3016,16 @@
       <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="21" t="s">
         <v>63</v>
       </c>
       <c r="F20" s="4">
@@ -3016,16 +3044,16 @@
       <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="21" t="s">
         <v>73</v>
       </c>
       <c r="F21" s="4">
@@ -3044,16 +3072,16 @@
       <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="21" t="s">
         <v>77</v>
       </c>
       <c r="F22" s="4">
@@ -3072,16 +3100,16 @@
       <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="21" t="s">
         <v>81</v>
       </c>
       <c r="F23" s="4">
@@ -3096,54 +3124,52 @@
         <v>0.024</v>
       </c>
     </row>
-    <row r="24" ht="69.6" spans="1:9">
-      <c r="A24" s="2">
+    <row r="24" ht="19.2" spans="1:9">
+      <c r="A24" s="9">
         <v>23</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="F24" s="2">
-        <v>2</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>84</v>
-      </c>
+      <c r="F24" s="9">
+        <v>1</v>
+      </c>
+      <c r="G24" s="11"/>
       <c r="H24" s="4">
         <v>0.012</v>
       </c>
       <c r="I24" s="4">
         <f t="shared" si="0"/>
-        <v>0.024</v>
-      </c>
-    </row>
-    <row r="25" ht="19.2" spans="1:9">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="25" ht="38.4" spans="1:9">
       <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="E25" s="20" t="s">
+      <c r="E25" s="21" t="s">
         <v>81</v>
       </c>
       <c r="F25" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4">
@@ -3151,23 +3177,23 @@
       </c>
       <c r="I25" s="4">
         <f t="shared" si="0"/>
-        <v>0.072</v>
-      </c>
-    </row>
-    <row r="26" ht="19.2" spans="1:9">
+        <v>0.048</v>
+      </c>
+    </row>
+    <row r="26" ht="57.6" spans="1:9">
       <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="21" t="s">
         <v>81</v>
       </c>
       <c r="F26" s="4">
@@ -3186,16 +3212,16 @@
       <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="C27" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="E27" s="20" t="s">
+      <c r="E27" s="21" t="s">
         <v>81</v>
       </c>
       <c r="F27" s="4">
@@ -3214,16 +3240,16 @@
       <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="C28" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="E28" s="20" t="s">
+      <c r="E28" s="21" t="s">
         <v>81</v>
       </c>
       <c r="F28" s="4">
@@ -3242,23 +3268,23 @@
       <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="D29" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="E29" s="18" t="s">
         <v>95</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>96</v>
       </c>
       <c r="F29" s="2">
         <v>1</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H29" s="4">
         <v>2.12</v>
@@ -3272,17 +3298,17 @@
       <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="D30" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="E30" s="21" t="s">
         <v>100</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>101</v>
       </c>
       <c r="F30" s="4">
         <v>1</v>
@@ -3300,16 +3326,16 @@
       <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="C31" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="E31" s="20" t="s">
+      <c r="E31" s="21" t="s">
         <v>81</v>
       </c>
       <c r="F31" s="4">
@@ -3328,16 +3354,16 @@
       <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="E32" s="20" t="s">
+      <c r="E32" s="21" t="s">
         <v>81</v>
       </c>
       <c r="F32" s="4">
@@ -3356,16 +3382,16 @@
       <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="C33" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="E33" s="20" t="s">
+      <c r="E33" s="21" t="s">
         <v>81</v>
       </c>
       <c r="F33" s="4">
@@ -3384,16 +3410,16 @@
       <c r="A34" s="4">
         <v>33</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="C34" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="E34" s="20" t="s">
+      <c r="E34" s="21" t="s">
         <v>81</v>
       </c>
       <c r="F34" s="4">
@@ -3412,16 +3438,16 @@
       <c r="A35" s="4">
         <v>34</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="C35" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="E35" s="20" t="s">
+      <c r="E35" s="21" t="s">
         <v>81</v>
       </c>
       <c r="F35" s="4">
@@ -3440,16 +3466,16 @@
       <c r="A36" s="4">
         <v>35</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="C36" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="E36" s="20" t="s">
+      <c r="E36" s="21" t="s">
         <v>81</v>
       </c>
       <c r="F36" s="4">
@@ -3468,17 +3494,17 @@
       <c r="A37" s="4">
         <v>36</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="D37" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="E37" s="21" t="s">
         <v>116</v>
-      </c>
-      <c r="E37" s="20" t="s">
-        <v>117</v>
       </c>
       <c r="F37" s="4">
         <v>1</v>
@@ -3493,26 +3519,26 @@
       </c>
     </row>
     <row r="38" ht="57.6" spans="1:9">
-      <c r="A38" s="10">
+      <c r="A38" s="12">
         <v>37</v>
       </c>
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="C38" s="26" t="s">
+      <c r="D38" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="D38" s="25" t="s">
+      <c r="E38" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="E38" s="25" t="s">
+      <c r="F38" s="12">
+        <v>1</v>
+      </c>
+      <c r="G38" s="14" t="s">
         <v>121</v>
-      </c>
-      <c r="F38" s="10">
-        <v>1</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>122</v>
       </c>
       <c r="H38" s="4">
         <v>6.58</v>
@@ -3526,17 +3552,17 @@
       <c r="A39" s="4">
         <v>38</v>
       </c>
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="D39" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="E39" s="21" t="s">
         <v>125</v>
-      </c>
-      <c r="E39" s="20" t="s">
-        <v>126</v>
       </c>
       <c r="F39" s="4">
         <v>1</v>
@@ -3554,23 +3580,23 @@
       <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C40" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="D40" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="E40" s="18" t="s">
         <v>129</v>
-      </c>
-      <c r="E40" s="17" t="s">
-        <v>130</v>
       </c>
       <c r="F40" s="2">
         <v>1</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H40" s="4">
         <v>0.3</v>
@@ -3584,17 +3610,17 @@
       <c r="A41" s="4">
         <v>40</v>
       </c>
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="D41" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="D41" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="E41" s="20" t="s">
-        <v>126</v>
+      <c r="E41" s="21" t="s">
+        <v>125</v>
       </c>
       <c r="F41" s="4">
         <v>1</v>
@@ -3609,26 +3635,26 @@
       </c>
     </row>
     <row r="42" ht="54" spans="1:9">
-      <c r="A42" s="10">
+      <c r="A42" s="12">
         <v>41</v>
       </c>
-      <c r="B42" s="25" t="s">
+      <c r="B42" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="C42" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="C42" s="27" t="s">
+      <c r="D42" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="D42" s="25" t="s">
+      <c r="E42" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="E42" s="26" t="s">
+      <c r="F42" s="12">
+        <v>1</v>
+      </c>
+      <c r="G42" s="14" t="s">
         <v>138</v>
-      </c>
-      <c r="F42" s="10">
-        <v>1</v>
-      </c>
-      <c r="G42" s="12" t="s">
-        <v>139</v>
       </c>
       <c r="H42" s="4">
         <v>1.1</v>
@@ -3638,26 +3664,117 @@
         <v>1.1</v>
       </c>
     </row>
-    <row r="43" ht="24" customHeight="1" spans="1:9">
-      <c r="A43" s="14" t="s">
+    <row r="43" ht="77" customHeight="1" spans="1:9">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15">
-        <f>SUM(I2:I42)</f>
-        <v>64.123</v>
-      </c>
-      <c r="I43" s="15"/>
+      <c r="D43" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="F43" s="2">
+        <v>1</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H43" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="I43" s="4">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="44" ht="19.2" spans="1:9">
+      <c r="A44" s="9">
+        <v>43</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F44" s="4">
+        <v>1</v>
+      </c>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4">
+        <v>0.012</v>
+      </c>
+      <c r="I44" s="4">
+        <f t="shared" si="0"/>
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="45" ht="19.2" spans="1:9">
+      <c r="A45" s="9">
+        <v>44</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F45" s="4">
+        <v>2</v>
+      </c>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4">
+        <v>0.012</v>
+      </c>
+      <c r="I45" s="4">
+        <f t="shared" si="0"/>
+        <v>0.024</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16">
+        <f>SUM(I2:I45)</f>
+        <v>64.323</v>
+      </c>
+      <c r="I46" s="16"/>
+    </row>
+    <row r="52" spans="3:3">
+      <c r="C52">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="H46:I46"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/MainPCB/BOM.xlsx
+++ b/MainPCB/BOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29868" windowHeight="15420"/>
+    <workbookView windowWidth="23628" windowHeight="13764"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="153">
   <si>
     <t>编号</t>
   </si>
@@ -1156,6 +1156,39 @@
   </si>
   <si>
     <t>R3, R29</t>
+  </si>
+  <si>
+    <t>CC1206MKX5R6BB476</t>
+  </si>
+  <si>
+    <r>
+      <t>1206 MLCC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电容</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 10V 47uF±20% 
+X5R</t>
+    </r>
+  </si>
+  <si>
+    <t>C23</t>
+  </si>
+  <si>
+    <t>1206C</t>
   </si>
   <si>
     <t>合计总价</t>
@@ -1841,7 +1874,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1888,6 +1921,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2459,8 +2495,8 @@
   <sheetPr/>
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2477,19 +2513,19 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -2506,16 +2542,16 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="2">
@@ -2536,16 +2572,16 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="19" t="s">
         <v>17</v>
       </c>
       <c r="F3" s="2">
@@ -2566,16 +2602,16 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="22" t="s">
         <v>22</v>
       </c>
       <c r="F4" s="4">
@@ -2594,16 +2630,16 @@
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="22" t="s">
         <v>26</v>
       </c>
       <c r="F5" s="4">
@@ -2622,16 +2658,16 @@
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="22" t="s">
         <v>26</v>
       </c>
       <c r="F6" s="4">
@@ -2650,16 +2686,16 @@
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="22" t="s">
         <v>26</v>
       </c>
       <c r="F7" s="4">
@@ -2678,16 +2714,16 @@
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="22" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="4">
@@ -2706,16 +2742,16 @@
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="22" t="s">
         <v>26</v>
       </c>
       <c r="F9" s="4">
@@ -2734,16 +2770,16 @@
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="22" t="s">
         <v>37</v>
       </c>
       <c r="F10" s="4">
@@ -2762,16 +2798,16 @@
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="22" t="s">
         <v>26</v>
       </c>
       <c r="F11" s="4">
@@ -2790,16 +2826,16 @@
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="22" t="s">
         <v>26</v>
       </c>
       <c r="F12" s="4">
@@ -2818,16 +2854,16 @@
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="22" t="s">
         <v>26</v>
       </c>
       <c r="F13" s="4">
@@ -2846,16 +2882,16 @@
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="22" t="s">
         <v>47</v>
       </c>
       <c r="F14" s="4">
@@ -2874,16 +2910,16 @@
       <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="22" t="s">
         <v>47</v>
       </c>
       <c r="F15" s="4">
@@ -2902,16 +2938,16 @@
       <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="22" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="4">
@@ -2930,16 +2966,16 @@
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="19" t="s">
         <v>58</v>
       </c>
       <c r="F17" s="2">
@@ -2960,16 +2996,16 @@
       <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="22" t="s">
         <v>63</v>
       </c>
       <c r="F18" s="4">
@@ -2988,16 +3024,16 @@
       <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="22" t="s">
         <v>63</v>
       </c>
       <c r="F19" s="4">
@@ -3016,16 +3052,16 @@
       <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="22" t="s">
         <v>63</v>
       </c>
       <c r="F20" s="4">
@@ -3044,16 +3080,16 @@
       <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="22" t="s">
         <v>73</v>
       </c>
       <c r="F21" s="4">
@@ -3072,16 +3108,16 @@
       <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="22" t="s">
         <v>77</v>
       </c>
       <c r="F22" s="4">
@@ -3100,16 +3136,16 @@
       <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="E23" s="22" t="s">
         <v>81</v>
       </c>
       <c r="F23" s="4">
@@ -3128,16 +3164,16 @@
       <c r="A24" s="9">
         <v>23</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="E24" s="26" t="s">
         <v>81</v>
       </c>
       <c r="F24" s="9">
@@ -3156,16 +3192,16 @@
       <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="E25" s="22" t="s">
         <v>81</v>
       </c>
       <c r="F25" s="4">
@@ -3184,16 +3220,16 @@
       <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="E26" s="21" t="s">
+      <c r="E26" s="22" t="s">
         <v>81</v>
       </c>
       <c r="F26" s="4">
@@ -3212,16 +3248,16 @@
       <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D27" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="E27" s="22" t="s">
         <v>81</v>
       </c>
       <c r="F27" s="4">
@@ -3240,16 +3276,16 @@
       <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="D28" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="E28" s="21" t="s">
+      <c r="E28" s="22" t="s">
         <v>81</v>
       </c>
       <c r="F28" s="4">
@@ -3268,16 +3304,16 @@
       <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E29" s="19" t="s">
         <v>95</v>
       </c>
       <c r="F29" s="2">
@@ -3298,16 +3334,16 @@
       <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="D30" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="E30" s="21" t="s">
+      <c r="E30" s="22" t="s">
         <v>100</v>
       </c>
       <c r="F30" s="4">
@@ -3326,16 +3362,16 @@
       <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="D31" s="21" t="s">
+      <c r="D31" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="E31" s="21" t="s">
+      <c r="E31" s="22" t="s">
         <v>81</v>
       </c>
       <c r="F31" s="4">
@@ -3354,16 +3390,16 @@
       <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="D32" s="21" t="s">
+      <c r="D32" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="E32" s="21" t="s">
+      <c r="E32" s="22" t="s">
         <v>81</v>
       </c>
       <c r="F32" s="4">
@@ -3382,16 +3418,16 @@
       <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="D33" s="21" t="s">
+      <c r="D33" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="E33" s="21" t="s">
+      <c r="E33" s="22" t="s">
         <v>81</v>
       </c>
       <c r="F33" s="4">
@@ -3410,16 +3446,16 @@
       <c r="A34" s="4">
         <v>33</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="21" t="s">
+      <c r="D34" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="E34" s="21" t="s">
+      <c r="E34" s="22" t="s">
         <v>81</v>
       </c>
       <c r="F34" s="4">
@@ -3438,16 +3474,16 @@
       <c r="A35" s="4">
         <v>34</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="D35" s="21" t="s">
+      <c r="D35" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="E35" s="21" t="s">
+      <c r="E35" s="22" t="s">
         <v>81</v>
       </c>
       <c r="F35" s="4">
@@ -3466,16 +3502,16 @@
       <c r="A36" s="4">
         <v>35</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="D36" s="21" t="s">
+      <c r="D36" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="E36" s="21" t="s">
+      <c r="E36" s="22" t="s">
         <v>81</v>
       </c>
       <c r="F36" s="4">
@@ -3494,16 +3530,16 @@
       <c r="A37" s="4">
         <v>36</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="D37" s="21" t="s">
+      <c r="D37" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="E37" s="21" t="s">
+      <c r="E37" s="22" t="s">
         <v>116</v>
       </c>
       <c r="F37" s="4">
@@ -3522,16 +3558,16 @@
       <c r="A38" s="12">
         <v>37</v>
       </c>
-      <c r="B38" s="27" t="s">
+      <c r="B38" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="C38" s="28" t="s">
+      <c r="C38" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="D38" s="27" t="s">
+      <c r="D38" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="E38" s="27" t="s">
+      <c r="E38" s="28" t="s">
         <v>120</v>
       </c>
       <c r="F38" s="12">
@@ -3552,16 +3588,16 @@
       <c r="A39" s="4">
         <v>38</v>
       </c>
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="D39" s="21" t="s">
+      <c r="D39" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="E39" s="21" t="s">
+      <c r="E39" s="22" t="s">
         <v>125</v>
       </c>
       <c r="F39" s="4">
@@ -3580,16 +3616,16 @@
       <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D40" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="E40" s="18" t="s">
+      <c r="E40" s="19" t="s">
         <v>129</v>
       </c>
       <c r="F40" s="2">
@@ -3610,16 +3646,16 @@
       <c r="A41" s="4">
         <v>40</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="C41" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="D41" s="21" t="s">
+      <c r="D41" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="E41" s="21" t="s">
+      <c r="E41" s="22" t="s">
         <v>125</v>
       </c>
       <c r="F41" s="4">
@@ -3638,16 +3674,16 @@
       <c r="A42" s="12">
         <v>41</v>
       </c>
-      <c r="B42" s="27" t="s">
+      <c r="B42" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="C42" s="29" t="s">
+      <c r="C42" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="D42" s="27" t="s">
+      <c r="D42" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="E42" s="28" t="s">
+      <c r="E42" s="29" t="s">
         <v>137</v>
       </c>
       <c r="F42" s="12">
@@ -3677,7 +3713,7 @@
       <c r="D43" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E43" s="18" t="s">
+      <c r="E43" s="19" t="s">
         <v>116</v>
       </c>
       <c r="F43" s="2">
@@ -3698,16 +3734,16 @@
       <c r="A44" s="9">
         <v>43</v>
       </c>
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="C44" s="21" t="s">
+      <c r="C44" s="22" t="s">
         <v>144</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E44" s="21" t="s">
+      <c r="E44" s="22" t="s">
         <v>81</v>
       </c>
       <c r="F44" s="4">
@@ -3729,13 +3765,13 @@
       <c r="B45" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C45" s="21" t="s">
+      <c r="C45" s="22" t="s">
         <v>79</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E45" s="21" t="s">
+      <c r="E45" s="22" t="s">
         <v>81</v>
       </c>
       <c r="F45" s="4">
@@ -3750,21 +3786,49 @@
         <v>0.024</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="16" t="s">
+    <row r="46" ht="38.4" spans="1:9">
+      <c r="A46" s="4">
+        <v>45</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16">
-        <f>SUM(I2:I45)</f>
-        <v>64.323</v>
-      </c>
-      <c r="I46" s="16"/>
+      <c r="C46" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F46" s="4">
+        <v>1</v>
+      </c>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="I46" s="4">
+        <f>H46*F46</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17">
+        <f>SUM(I2:I46)</f>
+        <v>64.823</v>
+      </c>
+      <c r="I47" s="17"/>
     </row>
     <row r="52" spans="3:3">
       <c r="C52">
@@ -3773,8 +3837,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A46:G46"/>
-    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="A47:G47"/>
+    <mergeCell ref="H47:I47"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/MainPCB/BOM.xlsx
+++ b/MainPCB/BOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23628" windowHeight="13764"/>
+    <workbookView windowWidth="29868" windowHeight="15420"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -647,16 +647,10 @@
     <t>R7</t>
   </si>
   <si>
-    <t>BVT-I-R002-1.0</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
+    <t>BVT-V-R002-1.0</t>
+  </si>
+  <si>
+    <r>
       <t>德国伊萨</t>
     </r>
     <r>
@@ -685,7 +679,7 @@
         <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
-      <t>2512 2mΩ±1% &lt;50ppm/K P70</t>
+      <t>2512 2mΩ±1% NOVENTI</t>
     </r>
     <r>
       <rPr>
@@ -694,7 +688,25 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>℃=3W</t>
+      <t xml:space="preserve">材质 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;50ppm/K P70</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>℃=5W</t>
     </r>
   </si>
   <si>
@@ -1162,6 +1174,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>1206 MLCC</t>
     </r>
     <r>
@@ -1874,7 +1892,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1921,9 +1939,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2495,8 +2510,8 @@
   <sheetPr/>
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2513,19 +2528,19 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -2542,16 +2557,16 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="2">
@@ -2572,16 +2587,16 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="18" t="s">
         <v>17</v>
       </c>
       <c r="F3" s="2">
@@ -2594,7 +2609,7 @@
         <v>1.8</v>
       </c>
       <c r="I3" s="4">
-        <f t="shared" ref="I3:I45" si="0">H3*F3</f>
+        <f t="shared" ref="I3:I46" si="0">H3*F3</f>
         <v>9</v>
       </c>
     </row>
@@ -2602,16 +2617,16 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="21" t="s">
         <v>22</v>
       </c>
       <c r="F4" s="4">
@@ -2630,16 +2645,16 @@
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F5" s="4">
@@ -2658,16 +2673,16 @@
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F6" s="4">
@@ -2686,16 +2701,16 @@
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F7" s="4">
@@ -2714,16 +2729,16 @@
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="4">
@@ -2742,16 +2757,16 @@
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F9" s="4">
@@ -2770,16 +2785,16 @@
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F10" s="4">
@@ -2798,16 +2813,16 @@
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F11" s="4">
@@ -2826,16 +2841,16 @@
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F12" s="4">
@@ -2854,16 +2869,16 @@
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F13" s="4">
@@ -2882,16 +2897,16 @@
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="21" t="s">
         <v>47</v>
       </c>
       <c r="F14" s="4">
@@ -2910,16 +2925,16 @@
       <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="21" t="s">
         <v>47</v>
       </c>
       <c r="F15" s="4">
@@ -2938,16 +2953,16 @@
       <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="4">
@@ -2966,16 +2981,16 @@
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="18" t="s">
         <v>58</v>
       </c>
       <c r="F17" s="2">
@@ -2996,16 +3011,16 @@
       <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="21" t="s">
         <v>63</v>
       </c>
       <c r="F18" s="4">
@@ -3024,16 +3039,16 @@
       <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="21" t="s">
         <v>63</v>
       </c>
       <c r="F19" s="4">
@@ -3052,16 +3067,16 @@
       <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="21" t="s">
         <v>63</v>
       </c>
       <c r="F20" s="4">
@@ -3080,16 +3095,16 @@
       <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="21" t="s">
         <v>73</v>
       </c>
       <c r="F21" s="4">
@@ -3108,16 +3123,16 @@
       <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="21" t="s">
         <v>77</v>
       </c>
       <c r="F22" s="4">
@@ -3136,16 +3151,16 @@
       <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="21" t="s">
         <v>81</v>
       </c>
       <c r="F23" s="4">
@@ -3164,16 +3179,16 @@
       <c r="A24" s="9">
         <v>23</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="D24" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="E24" s="26" t="s">
+      <c r="E24" s="25" t="s">
         <v>81</v>
       </c>
       <c r="F24" s="9">
@@ -3192,16 +3207,16 @@
       <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="21" t="s">
         <v>81</v>
       </c>
       <c r="F25" s="4">
@@ -3220,16 +3235,16 @@
       <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="21" t="s">
         <v>81</v>
       </c>
       <c r="F26" s="4">
@@ -3248,16 +3263,16 @@
       <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="21" t="s">
         <v>81</v>
       </c>
       <c r="F27" s="4">
@@ -3276,16 +3291,16 @@
       <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="21" t="s">
         <v>81</v>
       </c>
       <c r="F28" s="4">
@@ -3304,16 +3319,16 @@
       <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="18" t="s">
         <v>95</v>
       </c>
       <c r="F29" s="2">
@@ -3323,27 +3338,27 @@
         <v>96</v>
       </c>
       <c r="H29" s="4">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="I29" s="4">
         <f t="shared" si="0"/>
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="30" ht="19.2" spans="1:9">
       <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="D30" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="21" t="s">
         <v>100</v>
       </c>
       <c r="F30" s="4">
@@ -3362,16 +3377,16 @@
       <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="D31" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="21" t="s">
         <v>81</v>
       </c>
       <c r="F31" s="4">
@@ -3390,16 +3405,16 @@
       <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D32" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="21" t="s">
         <v>81</v>
       </c>
       <c r="F32" s="4">
@@ -3418,16 +3433,16 @@
       <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="D33" s="22" t="s">
+      <c r="D33" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="E33" s="21" t="s">
         <v>81</v>
       </c>
       <c r="F33" s="4">
@@ -3446,16 +3461,16 @@
       <c r="A34" s="4">
         <v>33</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="E34" s="22" t="s">
+      <c r="E34" s="21" t="s">
         <v>81</v>
       </c>
       <c r="F34" s="4">
@@ -3474,16 +3489,16 @@
       <c r="A35" s="4">
         <v>34</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C35" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="D35" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="E35" s="22" t="s">
+      <c r="E35" s="21" t="s">
         <v>81</v>
       </c>
       <c r="F35" s="4">
@@ -3502,16 +3517,16 @@
       <c r="A36" s="4">
         <v>35</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="D36" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="E36" s="22" t="s">
+      <c r="E36" s="21" t="s">
         <v>81</v>
       </c>
       <c r="F36" s="4">
@@ -3530,16 +3545,16 @@
       <c r="A37" s="4">
         <v>36</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C37" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="D37" s="22" t="s">
+      <c r="D37" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="E37" s="22" t="s">
+      <c r="E37" s="21" t="s">
         <v>116</v>
       </c>
       <c r="F37" s="4">
@@ -3558,16 +3573,16 @@
       <c r="A38" s="12">
         <v>37</v>
       </c>
-      <c r="B38" s="28" t="s">
+      <c r="B38" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="C38" s="29" t="s">
+      <c r="C38" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="D38" s="28" t="s">
+      <c r="D38" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="E38" s="28" t="s">
+      <c r="E38" s="27" t="s">
         <v>120</v>
       </c>
       <c r="F38" s="12">
@@ -3588,16 +3603,16 @@
       <c r="A39" s="4">
         <v>38</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C39" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="D39" s="22" t="s">
+      <c r="D39" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="E39" s="22" t="s">
+      <c r="E39" s="21" t="s">
         <v>125</v>
       </c>
       <c r="F39" s="4">
@@ -3616,16 +3631,16 @@
       <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="D40" s="19" t="s">
+      <c r="D40" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="E40" s="19" t="s">
+      <c r="E40" s="18" t="s">
         <v>129</v>
       </c>
       <c r="F40" s="2">
@@ -3646,16 +3661,16 @@
       <c r="A41" s="4">
         <v>40</v>
       </c>
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="C41" s="24" t="s">
+      <c r="C41" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="D41" s="22" t="s">
+      <c r="D41" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="E41" s="22" t="s">
+      <c r="E41" s="21" t="s">
         <v>125</v>
       </c>
       <c r="F41" s="4">
@@ -3674,16 +3689,16 @@
       <c r="A42" s="12">
         <v>41</v>
       </c>
-      <c r="B42" s="28" t="s">
+      <c r="B42" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="D42" s="28" t="s">
+      <c r="D42" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="E42" s="29" t="s">
+      <c r="E42" s="28" t="s">
         <v>137</v>
       </c>
       <c r="F42" s="12">
@@ -3713,7 +3728,7 @@
       <c r="D43" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E43" s="19" t="s">
+      <c r="E43" s="18" t="s">
         <v>116</v>
       </c>
       <c r="F43" s="2">
@@ -3734,16 +3749,16 @@
       <c r="A44" s="9">
         <v>43</v>
       </c>
-      <c r="B44" s="22" t="s">
+      <c r="B44" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="C44" s="21" t="s">
         <v>144</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E44" s="22" t="s">
+      <c r="E44" s="21" t="s">
         <v>81</v>
       </c>
       <c r="F44" s="4">
@@ -3765,13 +3780,13 @@
       <c r="B45" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C45" s="22" t="s">
+      <c r="C45" s="21" t="s">
         <v>79</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E45" s="22" t="s">
+      <c r="E45" s="21" t="s">
         <v>81</v>
       </c>
       <c r="F45" s="4">
@@ -3793,7 +3808,7 @@
       <c r="B46" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="7" t="s">
         <v>149</v>
       </c>
       <c r="D46" s="4" t="s">
@@ -3810,25 +3825,25 @@
         <v>0.5</v>
       </c>
       <c r="I46" s="4">
-        <f>H46*F46</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="17" t="s">
+      <c r="A47" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17">
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16">
         <f>SUM(I2:I46)</f>
-        <v>64.823</v>
-      </c>
-      <c r="I47" s="17"/>
+        <v>64.853</v>
+      </c>
+      <c r="I47" s="16"/>
     </row>
     <row r="52" spans="3:3">
       <c r="C52">

--- a/MainPCB/BOM.xlsx
+++ b/MainPCB/BOM.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="154">
   <si>
     <t>编号</t>
   </si>
@@ -104,7 +104,7 @@
     <t>TCN4</t>
   </si>
   <si>
-    <t>这玩意单价不便宜，封装特殊小心买到假的。可以用TCN4157M025R0070E替代</t>
+    <t>这玩意单价不便宜，封装特殊小心买到假的。2串三元锂电输入的时候可以TCN4157M025R0070E替代</t>
   </si>
   <si>
     <t>EMK325ABJ107MM-T</t>
@@ -205,7 +205,7 @@
     <t>C11, C12</t>
   </si>
   <si>
-    <t>68nF (683) 10% 50V</t>
+    <t>47nF (473) 10% 50V</t>
   </si>
   <si>
     <t>C13</t>
@@ -321,9 +321,22 @@
     <t>0402_L</t>
   </si>
   <si>
-    <t>XAL1060-122MEB</t>
-  </si>
-  <si>
+    <t>XAL1060-681MEB</t>
+  </si>
+  <si>
+    <r>
+      <t>线艺XAL系列模压屏蔽贴片电感</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 
+680nH±20% 10*10*6mm</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -331,25 +344,6 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>线艺XAL系列模压屏蔽贴片电感</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 
-1.2uH±20% 10*10*6mm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>尺寸 DCR：2.50mΩ 饱和电流43A</t>
     </r>
   </si>
@@ -358,9 +352,6 @@
   </si>
   <si>
     <t>XAL1010-XXXME</t>
-  </si>
-  <si>
-    <t>如果不好采购可以用长江微电的FEXL1060A-1R2M直接代替</t>
   </si>
   <si>
     <t>AP80P02DF</t>
@@ -651,6 +642,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>德国伊萨</t>
     </r>
     <r>
@@ -758,7 +755,7 @@
     <t>1206R</t>
   </si>
   <si>
-    <t>7.5MΩ (7504) ±1%</t>
+    <t>10MΩ (1005) ±1%</t>
   </si>
   <si>
     <t>R12</t>
@@ -1167,7 +1164,13 @@
     <t>200KΩ (2003) ±1%</t>
   </si>
   <si>
-    <t>R3, R29</t>
+    <t>R29</t>
+  </si>
+  <si>
+    <t>499KΩ (4993) ±1%</t>
+  </si>
+  <si>
+    <t>R3</t>
   </si>
   <si>
     <t>CC1206MKX5R6BB476</t>
@@ -1892,7 +1895,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1917,6 +1920,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1963,6 +1975,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -2508,10 +2526,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2528,19 +2546,19 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -2553,20 +2571,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="46.8" spans="1:9">
+    <row r="2" ht="62.4" spans="1:9">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="2">
@@ -2587,16 +2605,16 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="21" t="s">
         <v>17</v>
       </c>
       <c r="F3" s="2">
@@ -2617,16 +2635,16 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="24" t="s">
         <v>22</v>
       </c>
       <c r="F4" s="4">
@@ -2645,16 +2663,16 @@
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="24" t="s">
         <v>26</v>
       </c>
       <c r="F5" s="4">
@@ -2673,16 +2691,16 @@
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="24" t="s">
         <v>26</v>
       </c>
       <c r="F6" s="4">
@@ -2701,16 +2719,16 @@
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="24" t="s">
         <v>26</v>
       </c>
       <c r="F7" s="4">
@@ -2729,16 +2747,16 @@
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="24" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="4">
@@ -2757,16 +2775,16 @@
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="24" t="s">
         <v>26</v>
       </c>
       <c r="F9" s="4">
@@ -2785,16 +2803,16 @@
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="24" t="s">
         <v>37</v>
       </c>
       <c r="F10" s="4">
@@ -2813,16 +2831,16 @@
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="24" t="s">
         <v>26</v>
       </c>
       <c r="F11" s="4">
@@ -2841,16 +2859,16 @@
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="24" t="s">
         <v>26</v>
       </c>
       <c r="F12" s="4">
@@ -2869,16 +2887,16 @@
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="24" t="s">
         <v>26</v>
       </c>
       <c r="F13" s="4">
@@ -2897,16 +2915,16 @@
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="24" t="s">
         <v>47</v>
       </c>
       <c r="F14" s="4">
@@ -2925,16 +2943,16 @@
       <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="24" t="s">
         <v>47</v>
       </c>
       <c r="F15" s="4">
@@ -2953,16 +2971,16 @@
       <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="24" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="4">
@@ -2978,50 +2996,48 @@
       </c>
     </row>
     <row r="17" ht="54" spans="1:9">
-      <c r="A17" s="2">
+      <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="8">
         <v>1</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H17" s="4">
-        <v>16</v>
-      </c>
-      <c r="I17" s="4">
-        <f t="shared" si="0"/>
-        <v>16</v>
+      <c r="G17" s="9"/>
+      <c r="H17" s="10">
+        <v>30</v>
+      </c>
+      <c r="I17" s="10">
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
     </row>
     <row r="18" ht="38.4" spans="1:9">
       <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="D18" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="E18" s="24" t="s">
         <v>62</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>63</v>
       </c>
       <c r="F18" s="4">
         <v>3</v>
@@ -3039,17 +3055,17 @@
       <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="D19" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>63</v>
+      <c r="E19" s="24" t="s">
+        <v>62</v>
       </c>
       <c r="F19" s="4">
         <v>2</v>
@@ -3067,17 +3083,17 @@
       <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="D20" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>63</v>
+      <c r="E20" s="24" t="s">
+        <v>62</v>
       </c>
       <c r="F20" s="4">
         <v>1</v>
@@ -3095,17 +3111,17 @@
       <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="D21" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="E21" s="24" t="s">
         <v>72</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>73</v>
       </c>
       <c r="F21" s="4">
         <v>1</v>
@@ -3123,17 +3139,17 @@
       <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="D22" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="E22" s="24" t="s">
         <v>76</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>77</v>
       </c>
       <c r="F22" s="4">
         <v>1</v>
@@ -3151,17 +3167,17 @@
       <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="D23" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="E23" s="24" t="s">
         <v>80</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>81</v>
       </c>
       <c r="F23" s="4">
         <v>2</v>
@@ -3176,25 +3192,25 @@
       </c>
     </row>
     <row r="24" ht="19.2" spans="1:9">
-      <c r="A24" s="9">
+      <c r="A24" s="12">
         <v>23</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="F24" s="9">
+      <c r="E24" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="12">
         <v>1</v>
       </c>
-      <c r="G24" s="11"/>
+      <c r="G24" s="14"/>
       <c r="H24" s="4">
         <v>0.012</v>
       </c>
@@ -3207,17 +3223,17 @@
       <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="C25" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>81</v>
+      <c r="E25" s="24" t="s">
+        <v>80</v>
       </c>
       <c r="F25" s="4">
         <v>4</v>
@@ -3235,17 +3251,17 @@
       <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>81</v>
+      <c r="E26" s="24" t="s">
+        <v>80</v>
       </c>
       <c r="F26" s="4">
         <v>6</v>
@@ -3263,17 +3279,17 @@
       <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="C27" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>81</v>
+      <c r="E27" s="24" t="s">
+        <v>80</v>
       </c>
       <c r="F27" s="4">
         <v>1</v>
@@ -3291,17 +3307,17 @@
       <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="C28" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>81</v>
+      <c r="E28" s="24" t="s">
+        <v>80</v>
       </c>
       <c r="F28" s="4">
         <v>1</v>
@@ -3319,23 +3335,23 @@
       <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="D29" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="E29" s="21" t="s">
         <v>94</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>95</v>
       </c>
       <c r="F29" s="2">
         <v>1</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H29" s="4">
         <v>2.15</v>
@@ -3349,17 +3365,17 @@
       <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="D30" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="E30" s="24" t="s">
         <v>99</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>100</v>
       </c>
       <c r="F30" s="4">
         <v>1</v>
@@ -3377,17 +3393,17 @@
       <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="C31" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>81</v>
+      <c r="E31" s="24" t="s">
+        <v>80</v>
       </c>
       <c r="F31" s="4">
         <v>1</v>
@@ -3405,17 +3421,17 @@
       <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="C32" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="E32" s="21" t="s">
-        <v>81</v>
+      <c r="E32" s="24" t="s">
+        <v>80</v>
       </c>
       <c r="F32" s="4">
         <v>2</v>
@@ -3433,17 +3449,17 @@
       <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="C33" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="E33" s="21" t="s">
-        <v>81</v>
+      <c r="E33" s="24" t="s">
+        <v>80</v>
       </c>
       <c r="F33" s="4">
         <v>1</v>
@@ -3461,17 +3477,17 @@
       <c r="A34" s="4">
         <v>33</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="C34" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D34" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="E34" s="21" t="s">
-        <v>81</v>
+      <c r="E34" s="24" t="s">
+        <v>80</v>
       </c>
       <c r="F34" s="4">
         <v>1</v>
@@ -3489,17 +3505,17 @@
       <c r="A35" s="4">
         <v>34</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="C35" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="E35" s="21" t="s">
-        <v>81</v>
+      <c r="E35" s="24" t="s">
+        <v>80</v>
       </c>
       <c r="F35" s="4">
         <v>1</v>
@@ -3517,17 +3533,17 @@
       <c r="A36" s="4">
         <v>35</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="C36" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D36" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="E36" s="21" t="s">
-        <v>81</v>
+      <c r="E36" s="24" t="s">
+        <v>80</v>
       </c>
       <c r="F36" s="4">
         <v>1</v>
@@ -3545,17 +3561,17 @@
       <c r="A37" s="4">
         <v>36</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="D37" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="D37" s="21" t="s">
+      <c r="E37" s="24" t="s">
         <v>115</v>
-      </c>
-      <c r="E37" s="21" t="s">
-        <v>116</v>
       </c>
       <c r="F37" s="4">
         <v>1</v>
@@ -3570,26 +3586,26 @@
       </c>
     </row>
     <row r="38" ht="57.6" spans="1:9">
-      <c r="A38" s="12">
+      <c r="A38" s="15">
         <v>37</v>
       </c>
-      <c r="B38" s="27" t="s">
+      <c r="B38" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="C38" s="28" t="s">
+      <c r="D38" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="D38" s="27" t="s">
+      <c r="E38" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="E38" s="27" t="s">
+      <c r="F38" s="15">
+        <v>1</v>
+      </c>
+      <c r="G38" s="17" t="s">
         <v>120</v>
-      </c>
-      <c r="F38" s="12">
-        <v>1</v>
-      </c>
-      <c r="G38" s="14" t="s">
-        <v>121</v>
       </c>
       <c r="H38" s="4">
         <v>6.58</v>
@@ -3603,17 +3619,17 @@
       <c r="A39" s="4">
         <v>38</v>
       </c>
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="D39" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="D39" s="21" t="s">
+      <c r="E39" s="24" t="s">
         <v>124</v>
-      </c>
-      <c r="E39" s="21" t="s">
-        <v>125</v>
       </c>
       <c r="F39" s="4">
         <v>1</v>
@@ -3631,23 +3647,23 @@
       <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="C40" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="D40" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="E40" s="21" t="s">
         <v>128</v>
-      </c>
-      <c r="E40" s="18" t="s">
-        <v>129</v>
       </c>
       <c r="F40" s="2">
         <v>1</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H40" s="4">
         <v>0.3</v>
@@ -3661,17 +3677,17 @@
       <c r="A41" s="4">
         <v>40</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="D41" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="D41" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="E41" s="21" t="s">
-        <v>125</v>
+      <c r="E41" s="24" t="s">
+        <v>124</v>
       </c>
       <c r="F41" s="4">
         <v>1</v>
@@ -3686,26 +3702,26 @@
       </c>
     </row>
     <row r="42" ht="54" spans="1:9">
-      <c r="A42" s="12">
+      <c r="A42" s="15">
         <v>41</v>
       </c>
-      <c r="B42" s="27" t="s">
+      <c r="B42" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C42" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="C42" s="29" t="s">
+      <c r="D42" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="D42" s="27" t="s">
+      <c r="E42" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="E42" s="28" t="s">
+      <c r="F42" s="15">
+        <v>1</v>
+      </c>
+      <c r="G42" s="17" t="s">
         <v>137</v>
-      </c>
-      <c r="F42" s="12">
-        <v>1</v>
-      </c>
-      <c r="G42" s="14" t="s">
-        <v>138</v>
       </c>
       <c r="H42" s="4">
         <v>1.1</v>
@@ -3720,22 +3736,22 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E43" s="18" t="s">
-        <v>116</v>
+      <c r="E43" s="21" t="s">
+        <v>115</v>
       </c>
       <c r="F43" s="2">
         <v>1</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H43" s="4">
         <v>0.2</v>
@@ -3746,20 +3762,20 @@
       </c>
     </row>
     <row r="44" ht="19.2" spans="1:9">
-      <c r="A44" s="9">
+      <c r="A44" s="12">
         <v>43</v>
       </c>
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="C44" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="C44" s="21" t="s">
+      <c r="D44" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E44" s="21" t="s">
-        <v>81</v>
+      <c r="E44" s="24" t="s">
+        <v>80</v>
       </c>
       <c r="F44" s="4">
         <v>1</v>
@@ -3774,20 +3790,20 @@
       </c>
     </row>
     <row r="45" ht="19.2" spans="1:9">
-      <c r="A45" s="9">
+      <c r="A45" s="12">
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C45" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E45" s="21" t="s">
-        <v>81</v>
+      <c r="E45" s="24" t="s">
+        <v>80</v>
       </c>
       <c r="F45" s="4">
         <v>2</v>
@@ -3801,59 +3817,87 @@
         <v>0.024</v>
       </c>
     </row>
-    <row r="46" ht="38.4" spans="1:9">
-      <c r="A46" s="4">
+    <row r="46" ht="19.2" spans="1:9">
+      <c r="A46" s="12">
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C46" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>151</v>
+      <c r="E46" s="24" t="s">
+        <v>80</v>
       </c>
       <c r="F46" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4">
+        <v>0.012</v>
+      </c>
+      <c r="I46" s="4">
+        <f t="shared" si="0"/>
+        <v>0.024</v>
+      </c>
+    </row>
+    <row r="47" ht="38.4" spans="1:9">
+      <c r="A47" s="12">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F47" s="4">
+        <v>1</v>
+      </c>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4">
         <v>0.5</v>
       </c>
-      <c r="I46" s="4">
-        <f t="shared" si="0"/>
+      <c r="I47" s="4">
+        <f>H47*F47</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16">
-        <f>SUM(I2:I46)</f>
-        <v>64.853</v>
-      </c>
-      <c r="I47" s="16"/>
-    </row>
-    <row r="52" spans="3:3">
-      <c r="C52">
+    <row r="48" spans="1:9">
+      <c r="A48" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19">
+        <f>SUM(I2:I47)</f>
+        <v>78.877</v>
+      </c>
+      <c r="I48" s="19"/>
+    </row>
+    <row r="53" spans="3:3">
+      <c r="C53">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A47:G47"/>
-    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="A48:G48"/>
+    <mergeCell ref="H48:I48"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/MainPCB/BOM.xlsx
+++ b/MainPCB/BOM.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="153">
   <si>
     <t>编号</t>
   </si>
@@ -325,6 +325,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>线艺XAL系列模压屏蔽贴片电感</t>
     </r>
     <r>
@@ -638,9 +644,30 @@
     <t>R7</t>
   </si>
   <si>
-    <t>BVT-V-R002-1.0</t>
-  </si>
-  <si>
+    <t>ASR-M-3-R0015-1.0</t>
+  </si>
+  <si>
+    <t>深圳华讯高科精密检流电阻，2512 1.5mΩ±1% 卡玛材质 &lt;50ppm/K P70℃=3W</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>2512</t>
+  </si>
+  <si>
+    <t>RL12FTNR500</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1206</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -648,7 +675,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>德国伊萨</t>
+      <t>厚膜采样电阻</t>
     </r>
     <r>
       <rPr>
@@ -657,94 +684,6 @@
         <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
-      <t>ISA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">精密检流电阻，
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2512 2mΩ±1% NOVENTI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">材质 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&lt;50ppm/K P70</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>℃=5W</t>
-    </r>
-  </si>
-  <si>
-    <t>R8</t>
-  </si>
-  <si>
-    <t>2512</t>
-  </si>
-  <si>
-    <t>可用大毅的RLP25FEGR002
-或者相似参数的直接替换但是需要特别注意温漂参数</t>
-  </si>
-  <si>
-    <t>RL12FTNR500</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1206</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>厚膜采样电阻</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve"> 0.5Ω ±1% 1/2W</t>
     </r>
   </si>
@@ -761,7 +700,7 @@
     <t>R12</t>
   </si>
   <si>
-    <t>470Ω (4700) ±1%</t>
+    <t>100Ω (1000) ±1%</t>
   </si>
   <si>
     <t>R14, R17</t>
@@ -1926,21 +1865,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1986,10 +1925,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1">
@@ -2528,8 +2467,8 @@
   <sheetPr/>
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2627,7 +2566,7 @@
         <v>1.8</v>
       </c>
       <c r="I3" s="4">
-        <f t="shared" ref="I3:I46" si="0">H3*F3</f>
+        <f t="shared" ref="I3:I47" si="0">H3*F3</f>
         <v>9</v>
       </c>
     </row>
@@ -3015,10 +2954,10 @@
         <v>1</v>
       </c>
       <c r="G17" s="9"/>
-      <c r="H17" s="10">
+      <c r="H17" s="8">
         <v>30</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="8">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -3192,25 +3131,25 @@
       </c>
     </row>
     <row r="24" ht="19.2" spans="1:9">
-      <c r="A24" s="12">
+      <c r="A24" s="8">
         <v>23</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="D24" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="E24" s="30" t="s">
+      <c r="E24" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="8">
         <v>1</v>
       </c>
-      <c r="G24" s="14"/>
+      <c r="G24" s="12"/>
       <c r="H24" s="4">
         <v>0.012</v>
       </c>
@@ -3331,34 +3270,32 @@
         <v>0.012</v>
       </c>
     </row>
-    <row r="29" ht="62.4" spans="1:9">
-      <c r="A29" s="2">
+    <row r="29" ht="46.8" spans="1:9">
+      <c r="A29" s="13">
         <v>28</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="D29" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="E29" s="21" t="s">
+      <c r="E29" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="13">
         <v>1</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>95</v>
-      </c>
+      <c r="G29" s="14"/>
       <c r="H29" s="4">
-        <v>2.15</v>
+        <v>0.78</v>
       </c>
       <c r="I29" s="4">
         <f t="shared" si="0"/>
-        <v>2.15</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="30" ht="19.2" spans="1:9">
@@ -3366,16 +3303,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="D30" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="E30" s="24" t="s">
         <v>98</v>
-      </c>
-      <c r="E30" s="24" t="s">
-        <v>99</v>
       </c>
       <c r="F30" s="4">
         <v>1</v>
@@ -3394,13 +3331,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C31" s="25" t="s">
         <v>78</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E31" s="24" t="s">
         <v>80</v>
@@ -3422,13 +3359,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C32" s="25" t="s">
         <v>78</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E32" s="24" t="s">
         <v>80</v>
@@ -3450,13 +3387,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C33" s="25" t="s">
         <v>78</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E33" s="24" t="s">
         <v>80</v>
@@ -3478,13 +3415,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C34" s="25" t="s">
         <v>78</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E34" s="24" t="s">
         <v>80</v>
@@ -3506,13 +3443,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C35" s="25" t="s">
         <v>78</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E35" s="24" t="s">
         <v>80</v>
@@ -3534,13 +3471,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C36" s="25" t="s">
         <v>78</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E36" s="24" t="s">
         <v>80</v>
@@ -3562,16 +3499,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="D37" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="D37" s="24" t="s">
+      <c r="E37" s="24" t="s">
         <v>114</v>
-      </c>
-      <c r="E37" s="24" t="s">
-        <v>115</v>
       </c>
       <c r="F37" s="4">
         <v>1</v>
@@ -3590,22 +3527,22 @@
         <v>37</v>
       </c>
       <c r="B38" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="C38" s="33" t="s">
+      <c r="D38" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="D38" s="32" t="s">
+      <c r="E38" s="32" t="s">
         <v>118</v>
-      </c>
-      <c r="E38" s="32" t="s">
-        <v>119</v>
       </c>
       <c r="F38" s="15">
         <v>1</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H38" s="4">
         <v>6.58</v>
@@ -3620,16 +3557,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="C39" s="29" t="s">
+      <c r="D39" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="D39" s="24" t="s">
+      <c r="E39" s="24" t="s">
         <v>123</v>
-      </c>
-      <c r="E39" s="24" t="s">
-        <v>124</v>
       </c>
       <c r="F39" s="4">
         <v>1</v>
@@ -3648,22 +3585,22 @@
         <v>39</v>
       </c>
       <c r="B40" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C40" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="D40" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="D40" s="21" t="s">
+      <c r="E40" s="21" t="s">
         <v>127</v>
-      </c>
-      <c r="E40" s="21" t="s">
-        <v>128</v>
       </c>
       <c r="F40" s="2">
         <v>1</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H40" s="4">
         <v>0.3</v>
@@ -3678,16 +3615,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="C41" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="C41" s="26" t="s">
+      <c r="D41" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="D41" s="24" t="s">
-        <v>132</v>
-      </c>
       <c r="E41" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F41" s="4">
         <v>1</v>
@@ -3706,22 +3643,22 @@
         <v>41</v>
       </c>
       <c r="B42" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="34" t="s">
+      <c r="D42" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="D42" s="32" t="s">
+      <c r="E42" s="33" t="s">
         <v>135</v>
-      </c>
-      <c r="E42" s="33" t="s">
-        <v>136</v>
       </c>
       <c r="F42" s="15">
         <v>1</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H42" s="4">
         <v>1.1</v>
@@ -3736,22 +3673,22 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="E43" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F43" s="2">
         <v>1</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H43" s="4">
         <v>0.2</v>
@@ -3762,17 +3699,17 @@
       </c>
     </row>
     <row r="44" ht="19.2" spans="1:9">
-      <c r="A44" s="12">
+      <c r="A44" s="8">
         <v>43</v>
       </c>
       <c r="B44" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="C44" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="C44" s="24" t="s">
+      <c r="D44" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="E44" s="24" t="s">
         <v>80</v>
@@ -3790,17 +3727,17 @@
       </c>
     </row>
     <row r="45" ht="19.2" spans="1:9">
-      <c r="A45" s="12">
+      <c r="A45" s="8">
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C45" s="24" t="s">
         <v>78</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E45" s="24" t="s">
         <v>80</v>
@@ -3818,17 +3755,17 @@
       </c>
     </row>
     <row r="46" ht="19.2" spans="1:9">
-      <c r="A46" s="12">
+      <c r="A46" s="8">
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C46" s="24" t="s">
         <v>78</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E46" s="24" t="s">
         <v>80</v>
@@ -3846,20 +3783,20 @@
       </c>
     </row>
     <row r="47" ht="38.4" spans="1:9">
-      <c r="A47" s="12">
+      <c r="A47" s="8">
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C47" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="D47" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="E47" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="F47" s="4">
         <v>1</v>
@@ -3869,13 +3806,13 @@
         <v>0.5</v>
       </c>
       <c r="I47" s="4">
-        <f>H47*F47</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B48" s="19"/>
       <c r="C48" s="19"/>
@@ -3885,7 +3822,7 @@
       <c r="G48" s="19"/>
       <c r="H48" s="19">
         <f>SUM(I2:I47)</f>
-        <v>78.877</v>
+        <v>77.507</v>
       </c>
       <c r="I48" s="19"/>
     </row>
